--- a/biology/Zoologie/Chrysis_longula/Chrysis_longula.xlsx
+++ b/biology/Zoologie/Chrysis_longula/Chrysis_longula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysis longula est une espèce d'insectes hyménoptères de la famille des chrysididés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps long de 10 à 13 mm marqué de nombreuses ponctuations.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presque toute l'Europe : de l'Espagne à l'Ukraine, Angleterre, sud de la Norvège[1], Suède, Finlande, Italie et Grèce.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presque toute l'Europe : de l'Espagne à l'Ukraine, Angleterre, sud de la Norvège, Suède, Finlande, Italie et Grèce.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 septembre 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 septembre 2021) :
 Chrysis longula aeneopaca Linsenmaier, 1959
 Chrysis longula atlantea Linsenmaier, 1968
 Chrysis longula longula Abeille de Perrin, 1879
